--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.69390033333333</v>
+        <v>8.236601666666667</v>
       </c>
       <c r="N2">
-        <v>35.081701</v>
+        <v>24.709805</v>
       </c>
       <c r="O2">
-        <v>0.2143852009224814</v>
+        <v>0.1658794346531842</v>
       </c>
       <c r="P2">
-        <v>0.2308343738855075</v>
+        <v>0.1779826314087614</v>
       </c>
       <c r="Q2">
-        <v>8.192863512536666</v>
+        <v>3.893754598696667</v>
       </c>
       <c r="R2">
-        <v>73.73577161282999</v>
+        <v>35.04379138827</v>
       </c>
       <c r="S2">
-        <v>0.008649531463507885</v>
+        <v>0.005433627974930768</v>
       </c>
       <c r="T2">
-        <v>0.01013878876769417</v>
+        <v>0.00604631703727448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>93.429552</v>
       </c>
       <c r="O3">
-        <v>0.5709504586911971</v>
+        <v>0.6272020870120292</v>
       </c>
       <c r="P3">
-        <v>0.6147578801359564</v>
+        <v>0.6729651454676275</v>
       </c>
       <c r="Q3">
-        <v>21.81922614224</v>
+        <v>14.722566517792</v>
       </c>
       <c r="R3">
-        <v>196.37303528016</v>
+        <v>132.503098660128</v>
       </c>
       <c r="S3">
-        <v>0.02303542378533601</v>
+        <v>0.02054493863599688</v>
       </c>
       <c r="T3">
-        <v>0.02700161239012609</v>
+        <v>0.02286156009901826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04829733333333334</v>
+        <v>0.1445983333333334</v>
       </c>
       <c r="N4">
-        <v>0.144892</v>
+        <v>0.433795</v>
       </c>
       <c r="O4">
-        <v>0.0008854388369611891</v>
+        <v>0.002912109964258238</v>
       </c>
       <c r="P4">
-        <v>0.0009533760663720085</v>
+        <v>0.003124588623502439</v>
       </c>
       <c r="Q4">
-        <v>0.03383759470666668</v>
+        <v>0.06835712690333336</v>
       </c>
       <c r="R4">
-        <v>0.30453835236</v>
+        <v>0.6152141421300001</v>
       </c>
       <c r="S4">
-        <v>3.572369289649281E-05</v>
+        <v>9.539049973826555E-05</v>
       </c>
       <c r="T4">
-        <v>4.187451977111215E-05</v>
+        <v>0.0001061466126173186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.660829</v>
+        <v>10.129762</v>
       </c>
       <c r="N5">
-        <v>23.321658</v>
+        <v>20.259524</v>
       </c>
       <c r="O5">
-        <v>0.2137789015493603</v>
+        <v>0.2040063683705284</v>
       </c>
       <c r="P5">
-        <v>0.1534543699121641</v>
+        <v>0.1459276345001086</v>
       </c>
       <c r="Q5">
-        <v>8.169693405690001</v>
+        <v>4.788723428356001</v>
       </c>
       <c r="R5">
-        <v>49.01816043414</v>
+        <v>28.732340570136</v>
       </c>
       <c r="S5">
-        <v>0.008625069861300501</v>
+        <v>0.006682532482460785</v>
       </c>
       <c r="T5">
-        <v>0.006740076947078621</v>
+        <v>0.004957364298434213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J6">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.69390033333333</v>
+        <v>8.236601666666667</v>
       </c>
       <c r="N6">
-        <v>35.081701</v>
+        <v>24.709805</v>
       </c>
       <c r="O6">
-        <v>0.2143852009224814</v>
+        <v>0.1658794346531842</v>
       </c>
       <c r="P6">
-        <v>0.2308343738855075</v>
+        <v>0.1779826314087614</v>
       </c>
       <c r="Q6">
-        <v>138.7552997138711</v>
+        <v>97.73233055735557</v>
       </c>
       <c r="R6">
-        <v>1248.79769742484</v>
+        <v>879.5909750162</v>
       </c>
       <c r="S6">
-        <v>0.1464894818236755</v>
+        <v>0.1363827924721759</v>
       </c>
       <c r="T6">
-        <v>0.1717117186249158</v>
+        <v>0.1517611447673861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>93.429552</v>
       </c>
       <c r="O7">
-        <v>0.5709504586911971</v>
+        <v>0.6272020870120292</v>
       </c>
       <c r="P7">
-        <v>0.6147578801359564</v>
+        <v>0.6729651454676275</v>
       </c>
       <c r="Q7">
         <v>369.5329793128534</v>
@@ -886,10 +886,10 @@
         <v>3325.79681381568</v>
       </c>
       <c r="S7">
-        <v>0.3901306455892248</v>
+        <v>0.5156731589417388</v>
       </c>
       <c r="T7">
-        <v>0.4573024821195511</v>
+        <v>0.5738198163289442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.04829733333333334</v>
+        <v>0.1445983333333334</v>
       </c>
       <c r="N8">
-        <v>0.144892</v>
+        <v>0.433795</v>
       </c>
       <c r="O8">
-        <v>0.0008854388369611891</v>
+        <v>0.002912109964258238</v>
       </c>
       <c r="P8">
-        <v>0.0009533760663720085</v>
+        <v>0.003124588623502439</v>
       </c>
       <c r="Q8">
-        <v>0.5730774823644446</v>
+        <v>1.715747911977778</v>
       </c>
       <c r="R8">
-        <v>5.15769734128</v>
+        <v>15.4417312078</v>
       </c>
       <c r="S8">
-        <v>0.0006050206630629456</v>
+        <v>0.002394279253133223</v>
       </c>
       <c r="T8">
-        <v>0.0007091917901871777</v>
+        <v>0.002664255172971549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.660829</v>
+        <v>10.129762</v>
       </c>
       <c r="N9">
-        <v>23.321658</v>
+        <v>20.259524</v>
       </c>
       <c r="O9">
-        <v>0.2137789015493603</v>
+        <v>0.2040063683705284</v>
       </c>
       <c r="P9">
-        <v>0.1534543699121641</v>
+        <v>0.1459276345001086</v>
       </c>
       <c r="Q9">
-        <v>138.36288806012</v>
+        <v>120.1958390506933</v>
       </c>
       <c r="R9">
-        <v>830.17732836072</v>
+        <v>721.17503430416</v>
       </c>
       <c r="S9">
-        <v>0.1460751972526494</v>
+        <v>0.167730003774437</v>
       </c>
       <c r="T9">
-        <v>0.1141507356317334</v>
+        <v>0.1244286854826387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H10">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I10">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J10">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.69390033333333</v>
+        <v>8.236601666666667</v>
       </c>
       <c r="N10">
-        <v>35.081701</v>
+        <v>24.709805</v>
       </c>
       <c r="O10">
-        <v>0.2143852009224814</v>
+        <v>0.1658794346531842</v>
       </c>
       <c r="P10">
-        <v>0.2308343738855075</v>
+        <v>0.1779826314087614</v>
       </c>
       <c r="Q10">
-        <v>5.346271925928221</v>
+        <v>3.121013103533333</v>
       </c>
       <c r="R10">
-        <v>48.11644733335399</v>
+        <v>28.0891179318</v>
       </c>
       <c r="S10">
-        <v>0.005644271647516732</v>
+        <v>0.004355288367469436</v>
       </c>
       <c r="T10">
-        <v>0.006616089926152931</v>
+        <v>0.004846385210759545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H11">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I11">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J11">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>93.429552</v>
       </c>
       <c r="O11">
-        <v>0.5709504586911971</v>
+        <v>0.6272020870120292</v>
       </c>
       <c r="P11">
-        <v>0.6147578801359564</v>
+        <v>0.6729651454676275</v>
       </c>
       <c r="Q11">
-        <v>14.23818619597867</v>
+        <v>11.80077528128</v>
       </c>
       <c r="R11">
-        <v>128.143675763808</v>
+        <v>106.20697753152</v>
       </c>
       <c r="S11">
-        <v>0.01503181876482529</v>
+        <v>0.01646765893148412</v>
       </c>
       <c r="T11">
-        <v>0.01761996425977696</v>
+        <v>0.01832453145869382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.04829733333333334</v>
+        <v>0.1445983333333334</v>
       </c>
       <c r="N12">
-        <v>0.144892</v>
+        <v>0.433795</v>
       </c>
       <c r="O12">
-        <v>0.0008854388369611891</v>
+        <v>0.002912109964258238</v>
       </c>
       <c r="P12">
-        <v>0.0009533760663720085</v>
+        <v>0.003124588623502439</v>
       </c>
       <c r="Q12">
-        <v>0.02208080024088889</v>
+        <v>0.05479120046666668</v>
       </c>
       <c r="R12">
-        <v>0.198727202168</v>
+        <v>0.4931208042</v>
       </c>
       <c r="S12">
-        <v>2.331157795204955E-05</v>
+        <v>7.64596206795806E-05</v>
       </c>
       <c r="T12">
-        <v>2.732531417390938E-05</v>
+        <v>8.508111142525961E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.660829</v>
+        <v>10.129762</v>
       </c>
       <c r="N13">
-        <v>23.321658</v>
+        <v>20.259524</v>
       </c>
       <c r="O13">
-        <v>0.2137789015493603</v>
+        <v>0.2040063683705284</v>
       </c>
       <c r="P13">
-        <v>0.1534543699121641</v>
+        <v>0.1459276345001086</v>
       </c>
       <c r="Q13">
-        <v>5.331152219421999</v>
+        <v>3.83836941704</v>
       </c>
       <c r="R13">
-        <v>31.986913316532</v>
+        <v>23.03021650224</v>
       </c>
       <c r="S13">
-        <v>0.005628309172742869</v>
+        <v>0.005356339469757118</v>
       </c>
       <c r="T13">
-        <v>0.004398252711719535</v>
+        <v>0.003973542384920805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H14">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I14">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J14">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.69390033333333</v>
+        <v>8.236601666666667</v>
       </c>
       <c r="N14">
-        <v>35.081701</v>
+        <v>24.709805</v>
       </c>
       <c r="O14">
-        <v>0.2143852009224814</v>
+        <v>0.1658794346531842</v>
       </c>
       <c r="P14">
-        <v>0.2308343738855075</v>
+        <v>0.1779826314087614</v>
       </c>
       <c r="Q14">
-        <v>49.60716820699682</v>
+        <v>12.753199846795</v>
       </c>
       <c r="R14">
-        <v>297.643009241981</v>
+        <v>76.51919908077001</v>
       </c>
       <c r="S14">
-        <v>0.05237225807135363</v>
+        <v>0.01779674134590382</v>
       </c>
       <c r="T14">
-        <v>0.04092639885469381</v>
+        <v>0.01320231969065769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H15">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I15">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J15">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>93.429552</v>
       </c>
       <c r="O15">
-        <v>0.5709504586911971</v>
+        <v>0.6272020870120292</v>
       </c>
       <c r="P15">
-        <v>0.6147578801359564</v>
+        <v>0.6729651454676275</v>
       </c>
       <c r="Q15">
-        <v>132.113762145352</v>
+        <v>48.22076694868801</v>
       </c>
       <c r="R15">
-        <v>792.6825728721119</v>
+        <v>289.3246016921281</v>
       </c>
       <c r="S15">
-        <v>0.1394777467841412</v>
+        <v>0.06729076053039151</v>
       </c>
       <c r="T15">
-        <v>0.1089951456449434</v>
+        <v>0.04991892141839754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H16">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I16">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J16">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04829733333333334</v>
+        <v>0.1445983333333334</v>
       </c>
       <c r="N16">
-        <v>0.144892</v>
+        <v>0.433795</v>
       </c>
       <c r="O16">
-        <v>0.0008854388369611891</v>
+        <v>0.002912109964258238</v>
       </c>
       <c r="P16">
-        <v>0.0009533760663720085</v>
+        <v>0.003124588623502439</v>
       </c>
       <c r="Q16">
-        <v>0.2048840737753333</v>
+        <v>0.2238898416050001</v>
       </c>
       <c r="R16">
-        <v>1.229304442652</v>
+        <v>1.34333904963</v>
       </c>
       <c r="S16">
-        <v>0.000216304255499885</v>
+        <v>0.0003124321463543054</v>
       </c>
       <c r="T16">
-        <v>0.0001690313643245035</v>
+        <v>0.0002317744017085061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.660829</v>
+        <v>10.129762</v>
       </c>
       <c r="N17">
-        <v>23.321658</v>
+        <v>20.259524</v>
       </c>
       <c r="O17">
-        <v>0.2137789015493603</v>
+        <v>0.2040063683705284</v>
       </c>
       <c r="P17">
-        <v>0.1534543699121641</v>
+        <v>0.1459276345001086</v>
       </c>
       <c r="Q17">
-        <v>49.46687496447449</v>
+        <v>15.684487901034</v>
       </c>
       <c r="R17">
-        <v>197.867499857898</v>
+        <v>62.73795160413601</v>
       </c>
       <c r="S17">
-        <v>0.05222414492221383</v>
+        <v>0.02188727359963771</v>
       </c>
       <c r="T17">
-        <v>0.02720710370516985</v>
+        <v>0.01082455780725716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H18">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I18">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J18">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.69390033333333</v>
+        <v>8.236601666666667</v>
       </c>
       <c r="N18">
-        <v>35.081701</v>
+        <v>24.709805</v>
       </c>
       <c r="O18">
-        <v>0.2143852009224814</v>
+        <v>0.1658794346531842</v>
       </c>
       <c r="P18">
-        <v>0.2308343738855075</v>
+        <v>0.1779826314087614</v>
       </c>
       <c r="Q18">
-        <v>1.164735861000667</v>
+        <v>1.3694173931</v>
       </c>
       <c r="R18">
-        <v>10.482622749006</v>
+        <v>12.3247565379</v>
       </c>
       <c r="S18">
-        <v>0.001229657916427559</v>
+        <v>0.001910984492704182</v>
       </c>
       <c r="T18">
-        <v>0.001441377712050749</v>
+        <v>0.002126464702683632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H19">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I19">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J19">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>93.429552</v>
       </c>
       <c r="O19">
-        <v>0.5709504586911971</v>
+        <v>0.6272020870120292</v>
       </c>
       <c r="P19">
-        <v>0.6147578801359564</v>
+        <v>0.6729651454676275</v>
       </c>
       <c r="Q19">
-        <v>3.101923412768</v>
+        <v>5.17786577184</v>
       </c>
       <c r="R19">
-        <v>27.917310714912</v>
+        <v>46.60079194656</v>
       </c>
       <c r="S19">
-        <v>0.003274823767669656</v>
+        <v>0.00722556997241779</v>
       </c>
       <c r="T19">
-        <v>0.00383867572155884</v>
+        <v>0.008040316162573721</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H20">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I20">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J20">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.04829733333333334</v>
+        <v>0.1445983333333334</v>
       </c>
       <c r="N20">
-        <v>0.144892</v>
+        <v>0.433795</v>
       </c>
       <c r="O20">
-        <v>0.0008854388369611891</v>
+        <v>0.002912109964258238</v>
       </c>
       <c r="P20">
-        <v>0.0009533760663720085</v>
+        <v>0.003124588623502439</v>
       </c>
       <c r="Q20">
-        <v>0.004810510994666667</v>
+        <v>0.0240409189</v>
       </c>
       <c r="R20">
-        <v>0.04329459895200001</v>
+        <v>0.2163682701</v>
       </c>
       <c r="S20">
-        <v>5.078647549815842E-06</v>
+        <v>3.354844435286359E-05</v>
       </c>
       <c r="T20">
-        <v>5.95307791530568E-06</v>
+        <v>3.733132477980487E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H21">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I21">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J21">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.660829</v>
+        <v>10.129762</v>
       </c>
       <c r="N21">
-        <v>23.321658</v>
+        <v>20.259524</v>
       </c>
       <c r="O21">
-        <v>0.2137789015493603</v>
+        <v>0.2040063683705284</v>
       </c>
       <c r="P21">
-        <v>0.1534543699121641</v>
+        <v>0.1459276345001086</v>
       </c>
       <c r="Q21">
-        <v>1.161441890058</v>
+        <v>1.68417423012</v>
       </c>
       <c r="R21">
-        <v>6.968651340348</v>
+        <v>10.10504538072</v>
       </c>
       <c r="S21">
-        <v>0.001226180340453679</v>
+        <v>0.002350219044235771</v>
       </c>
       <c r="T21">
-        <v>0.0009582009164626894</v>
+        <v>0.001743484526857735</v>
       </c>
     </row>
   </sheetData>
